--- a/biology/Botanique/Mallomonadaceae/Mallomonadaceae.xlsx
+++ b/biology/Botanique/Mallomonadaceae/Mallomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mallomonadaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae et de l'ordre des Synurales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mallomonadaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae et de l'ordre des Synurales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Mallomonas, dérivé du grec μαλλός / mallós, « touffe de laine », et μονασ / monas, « seul, solitaire, isolé », littéralement « monade laineuse », en référence aux « écailles garnies de poils de silice que portent les cellules des espèces de ce genre »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Mallomonas, dérivé du grec μαλλός / mallós, « touffe de laine », et μονασ / monas, « seul, solitaire, isolé », littéralement « monade laineuse », en référence aux « écailles garnies de poils de silice que portent les cellules des espèces de ce genre ».
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mallomonas sont des cellules solitaires, entourées d'une enveloppe d'écailles de silice, de types et de formes variés (écailles de collier, écailles corporelles avec ou sans dôme, écailles de queue, écailles annulaires). Les écaille portent généralement des poils de silice dans la forme est parfois complexe.
 Les cellules sont biflagellées (un lisse et un poilu). Sauf chez Mallomonopsis, le flagelle lisse est réduit à un court moignon non visible au microscope optique. Le flagelle poilu possède deux rangées de poils tripartites. 
 Chaque cellule contient un chloroplaste bilobé sans stigmate.
-Les kystes et écailles de Mallomonas silicifiés se conservent bien dans les sédiments lacustres, ce qui est utilisé pour la reconstitution de l'histoire de l'eutrophisation et l'acidification des zones lacustres[1].
+Les kystes et écailles de Mallomonas silicifiés se conservent bien dans les sédiments lacustres, ce qui est utilisé pour la reconstitution de l'histoire de l'eutrophisation et l'acidification des zones lacustres.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 février 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 février 2022) :
 Catenochrysis Perman
 Chlorodesmis F.W.Phillips
 Chrysodidymus Prowse
